--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_32.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2206017.323711936</v>
+        <v>2201884.087631252</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2295956.101218069</v>
+        <v>2341983.383206081</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.0933791245</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8517595.250212964</v>
+        <v>8516765.460270096</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>18.93129518629649</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>247.5649254993292</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -753,10 +753,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>51.94707680657528</v>
       </c>
       <c r="T3" t="n">
-        <v>161.6737024915512</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>72.55567497641745</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>53.36735507144314</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>243.428118430915</v>
       </c>
       <c r="D5" t="n">
-        <v>309.9345644062375</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>25.3658788079387</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>47.21676074617339</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>227.816073408046</v>
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>83.55373540747259</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>39.71534783581649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>12.725494085322</v>
@@ -1148,10 +1148,10 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>72.7957671367966</v>
+        <v>91.37649775417424</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>34.10250295830922</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>85.65221129604876</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>302.4985237799665</v>
       </c>
       <c r="C11" t="n">
-        <v>295.2524720077822</v>
+        <v>295.2524720077823</v>
       </c>
       <c r="D11" t="n">
         <v>287.5954430211825</v>
@@ -1379,7 +1379,7 @@
         <v>304.5664151603045</v>
       </c>
       <c r="F11" t="n">
-        <v>318.7342196110055</v>
+        <v>43.01721371098597</v>
       </c>
       <c r="G11" t="n">
         <v>315.0398534825604</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404353</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>127.2743219418611</v>
       </c>
       <c r="U11" t="n">
-        <v>132.091255173227</v>
+        <v>159.203927795431</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6944667292003</v>
+        <v>244.6944667292004</v>
       </c>
       <c r="W11" t="n">
         <v>273.297770207079</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
         <v>298.5345275142885</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007185</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035426</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219398</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507307</v>
+        <v>60.0119495450716</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484036</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723247</v>
+        <v>72.5802388872325</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380454</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497647</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943239</v>
       </c>
       <c r="S13" t="n">
         <v>106.7966485049597</v>
@@ -1582,7 +1582,7 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U13" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662017</v>
       </c>
       <c r="V13" t="n">
         <v>169.3282772530676</v>
@@ -1594,7 +1594,7 @@
         <v>137.7482445205303</v>
       </c>
       <c r="Y13" t="n">
-        <v>126.8896660972066</v>
+        <v>126.8896660972067</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799664</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>295.2524720077822</v>
+        <v>295.2524720077823</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>87.52601544627218</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F14" t="n">
-        <v>318.7342196110055</v>
+        <v>318.7342196110056</v>
       </c>
       <c r="G14" t="n">
-        <v>14.2038975927415</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
         <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414335</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404351</v>
       </c>
       <c r="T14" t="n">
-        <v>127.274321941861</v>
+        <v>127.2743219418611</v>
       </c>
       <c r="U14" t="n">
-        <v>159.2039277954309</v>
+        <v>159.203927795431</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>244.6944667292004</v>
       </c>
       <c r="W14" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007184</v>
       </c>
       <c r="C16" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035424</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219397</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507308</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484035</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723248</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380448</v>
+        <v>59.93249105380453</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497646</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943237</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U16" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662017</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422876346</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T26" t="n">
-        <v>2.670853496218399</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
         <v>159.2039277954309</v>
@@ -2621,7 +2621,7 @@
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>177.0269289140288</v>
       </c>
     </row>
     <row r="27">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
-        <v>295.2524720077823</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D29" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
-        <v>318.7342196110056</v>
+        <v>197.2266210107459</v>
       </c>
       <c r="G29" t="n">
         <v>315.0398534825604</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>31.39033197517048</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404353</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
-        <v>127.2743219418611</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
-        <v>159.203927795431</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V29" t="n">
-        <v>244.6944667292004</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007185</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035426</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219398</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507309</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484036</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.5802388872325</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380454</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497647</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943239</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3004,19 +3004,19 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
-        <v>188.5931293662017</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
-        <v>126.8896660972067</v>
+        <v>126.8896660972066</v>
       </c>
     </row>
     <row r="32">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277517</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>284.1280864677957</v>
+        <v>289.0582874597575</v>
       </c>
       <c r="C41" t="n">
-        <v>276.8820346956115</v>
+        <v>281.8122356875733</v>
       </c>
       <c r="D41" t="n">
-        <v>269.2250057090117</v>
+        <v>274.1552067009735</v>
       </c>
       <c r="E41" t="n">
-        <v>286.1959778481337</v>
+        <v>248.7989181865622</v>
       </c>
       <c r="F41" t="n">
-        <v>300.3637822988348</v>
+        <v>305.2939832907966</v>
       </c>
       <c r="G41" t="n">
-        <v>296.6694161703896</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>208.480508142687</v>
+        <v>213.4107091346488</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>29.52223494393438</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>57.4169087138345</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>113.8340856216521</v>
       </c>
       <c r="U41" t="n">
-        <v>56.84225385033831</v>
+        <v>145.7636914752219</v>
       </c>
       <c r="V41" t="n">
-        <v>226.3240294170296</v>
+        <v>231.2542304089914</v>
       </c>
       <c r="W41" t="n">
-        <v>254.9273328949082</v>
+        <v>259.85753388687</v>
       </c>
       <c r="X41" t="n">
-        <v>273.1963672297865</v>
+        <v>278.1265682217483</v>
       </c>
       <c r="Y41" t="n">
-        <v>280.1640902021177</v>
+        <v>285.0942911940795</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>70.99422671790106</v>
+        <v>75.92442770986283</v>
       </c>
       <c r="C43" t="n">
-        <v>56.14135496818346</v>
+        <v>61.07155596014523</v>
       </c>
       <c r="D43" t="n">
-        <v>41.71507018002319</v>
+        <v>46.64527117198496</v>
       </c>
       <c r="E43" t="n">
-        <v>41.6415122329023</v>
+        <v>46.57171322486407</v>
       </c>
       <c r="F43" t="n">
-        <v>43.39096365266957</v>
+        <v>48.32116464463134</v>
       </c>
       <c r="G43" t="n">
-        <v>54.2098015750617</v>
+        <v>59.14000256702347</v>
       </c>
       <c r="H43" t="n">
-        <v>41.56205374163375</v>
+        <v>46.49225473359552</v>
       </c>
       <c r="I43" t="n">
-        <v>19.40176932280568</v>
+        <v>24.33197031476745</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.3002676872616</v>
+        <v>15.23046867922336</v>
       </c>
       <c r="S43" t="n">
-        <v>88.42621119278891</v>
+        <v>93.35641218475068</v>
       </c>
       <c r="T43" t="n">
-        <v>121.000149526961</v>
+        <v>125.9303505189228</v>
       </c>
       <c r="U43" t="n">
-        <v>170.2226920540309</v>
+        <v>175.1528930459926</v>
       </c>
       <c r="V43" t="n">
-        <v>150.9578399408968</v>
+        <v>155.8880409328586</v>
       </c>
       <c r="W43" t="n">
-        <v>168.1353862616469</v>
+        <v>173.0655872536087</v>
       </c>
       <c r="X43" t="n">
-        <v>119.3778072083595</v>
+        <v>124.3080082003213</v>
       </c>
       <c r="Y43" t="n">
-        <v>108.5192287850359</v>
+        <v>113.4494297769976</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>284.1280864677957</v>
+        <v>289.0582874597575</v>
       </c>
       <c r="C44" t="n">
-        <v>276.8820346956115</v>
+        <v>281.8122356875733</v>
       </c>
       <c r="D44" t="n">
-        <v>269.2250057090117</v>
+        <v>230.5781816775066</v>
       </c>
       <c r="E44" t="n">
-        <v>286.1959778481337</v>
+        <v>291.1261788400955</v>
       </c>
       <c r="F44" t="n">
-        <v>300.3637822988348</v>
+        <v>305.2939832907966</v>
       </c>
       <c r="G44" t="n">
-        <v>296.6694161703896</v>
+        <v>301.5996171623514</v>
       </c>
       <c r="H44" t="n">
-        <v>208.480508142687</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>24.59203395197261</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>113.8340856216521</v>
       </c>
       <c r="U44" t="n">
-        <v>32.25021989836502</v>
+        <v>145.7636914752219</v>
       </c>
       <c r="V44" t="n">
-        <v>226.3240294170296</v>
+        <v>231.2542304089914</v>
       </c>
       <c r="W44" t="n">
-        <v>254.9273328949082</v>
+        <v>259.85753388687</v>
       </c>
       <c r="X44" t="n">
-        <v>273.1963672297865</v>
+        <v>278.1265682217483</v>
       </c>
       <c r="Y44" t="n">
-        <v>280.1640902021177</v>
+        <v>285.0942911940795</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>70.99422671790106</v>
+        <v>75.92442770986284</v>
       </c>
       <c r="C46" t="n">
-        <v>56.14135496818346</v>
+        <v>61.07155596014525</v>
       </c>
       <c r="D46" t="n">
-        <v>41.71507018002319</v>
+        <v>46.64527117198497</v>
       </c>
       <c r="E46" t="n">
-        <v>41.6415122329023</v>
+        <v>46.57171322486408</v>
       </c>
       <c r="F46" t="n">
-        <v>43.39096365266957</v>
+        <v>48.32116464463135</v>
       </c>
       <c r="G46" t="n">
-        <v>54.2098015750617</v>
+        <v>59.14000256702349</v>
       </c>
       <c r="H46" t="n">
-        <v>41.56205374163375</v>
+        <v>46.49225473359553</v>
       </c>
       <c r="I46" t="n">
-        <v>19.40176932280568</v>
+        <v>24.33197031476746</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>10.3002676872616</v>
+        <v>15.23046867922338</v>
       </c>
       <c r="S46" t="n">
-        <v>88.42621119278891</v>
+        <v>93.3564121847507</v>
       </c>
       <c r="T46" t="n">
-        <v>121.000149526961</v>
+        <v>125.9303505189228</v>
       </c>
       <c r="U46" t="n">
-        <v>170.2226920540309</v>
+        <v>175.1528930459926</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9578399408968</v>
+        <v>155.8880409328586</v>
       </c>
       <c r="W46" t="n">
-        <v>168.1353862616469</v>
+        <v>173.0655872536087</v>
       </c>
       <c r="X46" t="n">
-        <v>119.3778072083595</v>
+        <v>124.3080082003213</v>
       </c>
       <c r="Y46" t="n">
-        <v>108.5192287850359</v>
+        <v>113.4494297769976</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1402.55197774945</v>
+        <v>947.0171529330368</v>
       </c>
       <c r="C2" t="n">
-        <v>1009.37647625238</v>
+        <v>927.8946325428383</v>
       </c>
       <c r="D2" t="n">
-        <v>1009.37647625238</v>
+        <v>927.8946325428383</v>
       </c>
       <c r="E2" t="n">
-        <v>1009.37647625238</v>
+        <v>927.8946325428383</v>
       </c>
       <c r="F2" t="n">
-        <v>592.482037782358</v>
+        <v>915.0405981132201</v>
       </c>
       <c r="G2" t="n">
-        <v>179.3192822703612</v>
+        <v>501.8778426012232</v>
       </c>
       <c r="H2" t="n">
-        <v>179.3192822703612</v>
+        <v>177.7947921677138</v>
       </c>
       <c r="I2" t="n">
-        <v>40.98216536282604</v>
+        <v>39.45767526017861</v>
       </c>
       <c r="J2" t="n">
-        <v>40.98216536282604</v>
+        <v>104.2908920195779</v>
       </c>
       <c r="K2" t="n">
-        <v>399.9645213902879</v>
+        <v>463.2732480470397</v>
       </c>
       <c r="L2" t="n">
-        <v>893.2848131088167</v>
+        <v>951.56197939175</v>
       </c>
       <c r="M2" t="n">
-        <v>893.2848131088167</v>
+        <v>951.56197939175</v>
       </c>
       <c r="N2" t="n">
-        <v>1400.439109473789</v>
+        <v>1439.85071073646</v>
       </c>
       <c r="O2" t="n">
-        <v>1700.92077600978</v>
+        <v>1439.85071073646</v>
       </c>
       <c r="P2" t="n">
-        <v>2049.108268141302</v>
+        <v>1788.038202867982</v>
       </c>
       <c r="Q2" t="n">
-        <v>2049.108268141302</v>
+        <v>1972.883763008931</v>
       </c>
       <c r="R2" t="n">
-        <v>2049.108268141302</v>
+        <v>1934.890849294452</v>
       </c>
       <c r="S2" t="n">
-        <v>2049.108268141302</v>
+        <v>1768.377294235503</v>
       </c>
       <c r="T2" t="n">
-        <v>2049.108268141302</v>
+        <v>1544.87669179492</v>
       </c>
       <c r="U2" t="n">
-        <v>2049.108268141302</v>
+        <v>1289.123962229518</v>
       </c>
       <c r="V2" t="n">
-        <v>2049.108268141302</v>
+        <v>947.0171529330368</v>
       </c>
       <c r="W2" t="n">
-        <v>1799.042686828848</v>
+        <v>947.0171529330368</v>
       </c>
       <c r="X2" t="n">
-        <v>1799.042686828848</v>
+        <v>947.0171529330368</v>
       </c>
       <c r="Y2" t="n">
-        <v>1402.55197774945</v>
+        <v>947.0171529330368</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>702.6634781153696</v>
+        <v>688.1694279603017</v>
       </c>
       <c r="C3" t="n">
-        <v>552.0092476754618</v>
+        <v>688.1694279603017</v>
       </c>
       <c r="D3" t="n">
-        <v>421.9202802969421</v>
+        <v>558.0804605817821</v>
       </c>
       <c r="E3" t="n">
-        <v>285.4737894078298</v>
+        <v>421.6339696926698</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0419832909616</v>
+        <v>297.2021635758016</v>
       </c>
       <c r="G3" t="n">
-        <v>40.98216536282604</v>
+        <v>177.1423456476661</v>
       </c>
       <c r="H3" t="n">
-        <v>40.98216536282604</v>
+        <v>88.84492924826702</v>
       </c>
       <c r="I3" t="n">
-        <v>40.98216536282604</v>
+        <v>39.45767526017861</v>
       </c>
       <c r="J3" t="n">
-        <v>154.0971475825534</v>
+        <v>152.572657479906</v>
       </c>
       <c r="K3" t="n">
-        <v>473.8362936447799</v>
+        <v>152.572657479906</v>
       </c>
       <c r="L3" t="n">
-        <v>473.8362936447799</v>
+        <v>636.1387433782193</v>
       </c>
       <c r="M3" t="n">
-        <v>473.8362936447799</v>
+        <v>1124.42747472293</v>
       </c>
       <c r="N3" t="n">
-        <v>901.9675115050419</v>
+        <v>1612.71620606764</v>
       </c>
       <c r="O3" t="n">
-        <v>1409.121807870014</v>
+        <v>1612.71620606764</v>
       </c>
       <c r="P3" t="n">
-        <v>1814.743176586412</v>
+        <v>1738.51867145404</v>
       </c>
       <c r="Q3" t="n">
-        <v>2049.108268141302</v>
+        <v>1972.883763008931</v>
       </c>
       <c r="R3" t="n">
-        <v>2049.108268141302</v>
+        <v>1948.966719906995</v>
       </c>
       <c r="S3" t="n">
-        <v>2049.108268141302</v>
+        <v>1896.494925152879</v>
       </c>
       <c r="T3" t="n">
-        <v>1885.801497947816</v>
+        <v>1719.511113351787</v>
       </c>
       <c r="U3" t="n">
-        <v>1675.738354626458</v>
+        <v>1509.447970030429</v>
       </c>
       <c r="V3" t="n">
-        <v>1453.198352997525</v>
+        <v>1286.907968401496</v>
       </c>
       <c r="W3" t="n">
-        <v>1223.081107130812</v>
+        <v>1056.790722534783</v>
       </c>
       <c r="X3" t="n">
-        <v>1033.774029480824</v>
+        <v>867.4836448847946</v>
       </c>
       <c r="Y3" t="n">
-        <v>854.4598125563309</v>
+        <v>688.1694279603017</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196.6152784603113</v>
+        <v>112.7462358424185</v>
       </c>
       <c r="C4" t="n">
-        <v>196.6152784603113</v>
+        <v>112.7462358424185</v>
       </c>
       <c r="D4" t="n">
-        <v>40.98216536282604</v>
+        <v>39.45767526017861</v>
       </c>
       <c r="E4" t="n">
-        <v>40.98216536282604</v>
+        <v>39.45767526017861</v>
       </c>
       <c r="F4" t="n">
-        <v>40.98216536282604</v>
+        <v>39.45767526017861</v>
       </c>
       <c r="G4" t="n">
-        <v>40.98216536282604</v>
+        <v>39.45767526017861</v>
       </c>
       <c r="H4" t="n">
-        <v>40.98216536282604</v>
+        <v>39.45767526017861</v>
       </c>
       <c r="I4" t="n">
-        <v>40.98216536282604</v>
+        <v>39.45767526017861</v>
       </c>
       <c r="J4" t="n">
-        <v>40.98216536282604</v>
+        <v>39.45767526017861</v>
       </c>
       <c r="K4" t="n">
-        <v>122.8172064727679</v>
+        <v>121.2927163701205</v>
       </c>
       <c r="L4" t="n">
-        <v>286.9448463465677</v>
+        <v>285.4203562439203</v>
       </c>
       <c r="M4" t="n">
-        <v>473.2364246848317</v>
+        <v>471.7119345821843</v>
       </c>
       <c r="N4" t="n">
-        <v>656.4260587160409</v>
+        <v>654.9015686133935</v>
       </c>
       <c r="O4" t="n">
-        <v>819.1308257577489</v>
+        <v>817.6063356551015</v>
       </c>
       <c r="P4" t="n">
-        <v>939.0069915343274</v>
+        <v>937.48250143168</v>
       </c>
       <c r="Q4" t="n">
-        <v>942.4291879043784</v>
+        <v>940.904697801731</v>
       </c>
       <c r="R4" t="n">
-        <v>942.4291879043784</v>
+        <v>817.003708434308</v>
       </c>
       <c r="S4" t="n">
-        <v>739.6131040869277</v>
+        <v>817.003708434308</v>
       </c>
       <c r="T4" t="n">
-        <v>739.6131040869277</v>
+        <v>581.2846566025421</v>
       </c>
       <c r="U4" t="n">
-        <v>739.6131040869277</v>
+        <v>581.2846566025421</v>
       </c>
       <c r="V4" t="n">
-        <v>473.6337589077519</v>
+        <v>581.2846566025421</v>
       </c>
       <c r="W4" t="n">
-        <v>419.727339643668</v>
+        <v>297.9542545337197</v>
       </c>
       <c r="X4" t="n">
-        <v>419.727339643668</v>
+        <v>297.9542545337197</v>
       </c>
       <c r="Y4" t="n">
-        <v>196.6152784603113</v>
+        <v>297.9542545337197</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2049.108268141302</v>
+        <v>307.3210494754451</v>
       </c>
       <c r="C5" t="n">
-        <v>2049.108268141302</v>
+        <v>61.43406116138956</v>
       </c>
       <c r="D5" t="n">
-        <v>1736.043051569345</v>
+        <v>61.43406116138956</v>
       </c>
       <c r="E5" t="n">
-        <v>1333.45952668589</v>
+        <v>61.43406116138956</v>
       </c>
       <c r="F5" t="n">
-        <v>916.5650882158675</v>
+        <v>48.58002673177138</v>
       </c>
       <c r="G5" t="n">
-        <v>503.4023327038706</v>
+        <v>39.45767526017861</v>
       </c>
       <c r="H5" t="n">
-        <v>179.3192822703612</v>
+        <v>39.45767526017861</v>
       </c>
       <c r="I5" t="n">
-        <v>40.98216536282604</v>
+        <v>39.45767526017861</v>
       </c>
       <c r="J5" t="n">
-        <v>185.6319382716541</v>
+        <v>39.45767526017861</v>
       </c>
       <c r="K5" t="n">
-        <v>544.614294299116</v>
+        <v>398.4400312876405</v>
       </c>
       <c r="L5" t="n">
-        <v>1037.934586017645</v>
+        <v>886.7287626323507</v>
       </c>
       <c r="M5" t="n">
-        <v>1541.95397177633</v>
+        <v>886.7287626323507</v>
       </c>
       <c r="N5" t="n">
-        <v>2049.108268141302</v>
+        <v>1347.998601975654</v>
       </c>
       <c r="O5" t="n">
-        <v>2049.108268141302</v>
+        <v>1788.038202867982</v>
       </c>
       <c r="P5" t="n">
-        <v>2049.108268141302</v>
+        <v>1788.038202867982</v>
       </c>
       <c r="Q5" t="n">
-        <v>2049.108268141302</v>
+        <v>1972.883763008931</v>
       </c>
       <c r="R5" t="n">
-        <v>2049.108268141302</v>
+        <v>1972.883763008931</v>
       </c>
       <c r="S5" t="n">
-        <v>2049.108268141302</v>
+        <v>1806.370207949981</v>
       </c>
       <c r="T5" t="n">
-        <v>2049.108268141302</v>
+        <v>1806.370207949981</v>
       </c>
       <c r="U5" t="n">
-        <v>2049.108268141302</v>
+        <v>1806.370207949981</v>
       </c>
       <c r="V5" t="n">
-        <v>2049.108268141302</v>
+        <v>1464.2633986535</v>
       </c>
       <c r="W5" t="n">
-        <v>2049.108268141302</v>
+        <v>1093.264363621787</v>
       </c>
       <c r="X5" t="n">
-        <v>2049.108268141302</v>
+        <v>703.811758554844</v>
       </c>
       <c r="Y5" t="n">
-        <v>2049.108268141302</v>
+        <v>307.3210494754451</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>840.3481485028569</v>
+        <v>838.8236584002095</v>
       </c>
       <c r="C6" t="n">
-        <v>689.6939180629491</v>
+        <v>688.1694279603017</v>
       </c>
       <c r="D6" t="n">
-        <v>559.6049506844295</v>
+        <v>558.0804605817821</v>
       </c>
       <c r="E6" t="n">
-        <v>423.1584597953172</v>
+        <v>421.6339696926698</v>
       </c>
       <c r="F6" t="n">
-        <v>298.7266536784491</v>
+        <v>297.2021635758016</v>
       </c>
       <c r="G6" t="n">
-        <v>178.6668357503135</v>
+        <v>177.1423456476661</v>
       </c>
       <c r="H6" t="n">
-        <v>90.36941935091446</v>
+        <v>88.84492924826702</v>
       </c>
       <c r="I6" t="n">
-        <v>40.98216536282604</v>
+        <v>39.45767526017861</v>
       </c>
       <c r="J6" t="n">
-        <v>40.98216536282604</v>
+        <v>39.45767526017861</v>
       </c>
       <c r="K6" t="n">
-        <v>360.7213114250525</v>
+        <v>359.1968213224051</v>
       </c>
       <c r="L6" t="n">
-        <v>844.2873973233657</v>
+        <v>359.1968213224051</v>
       </c>
       <c r="M6" t="n">
-        <v>1136.332603059932</v>
+        <v>847.4855526671154</v>
       </c>
       <c r="N6" t="n">
-        <v>1136.332603059932</v>
+        <v>1078.973662947823</v>
       </c>
       <c r="O6" t="n">
-        <v>1643.486899424905</v>
+        <v>1567.262394292533</v>
       </c>
       <c r="P6" t="n">
-        <v>2049.108268141302</v>
+        <v>1972.883763008931</v>
       </c>
       <c r="Q6" t="n">
-        <v>2049.108268141302</v>
+        <v>1972.883763008931</v>
       </c>
       <c r="R6" t="n">
-        <v>2049.108268141302</v>
+        <v>1948.966719906995</v>
       </c>
       <c r="S6" t="n">
-        <v>2049.108268141302</v>
+        <v>1814.036042806864</v>
       </c>
       <c r="T6" t="n">
-        <v>2023.486168335304</v>
+        <v>1637.052231005772</v>
       </c>
       <c r="U6" t="n">
-        <v>1813.423025013945</v>
+        <v>1589.358533282365</v>
       </c>
       <c r="V6" t="n">
-        <v>1590.883023385012</v>
+        <v>1589.358533282365</v>
       </c>
       <c r="W6" t="n">
-        <v>1360.765777518299</v>
+        <v>1359.241287415652</v>
       </c>
       <c r="X6" t="n">
-        <v>1171.458699868311</v>
+        <v>1169.934209765664</v>
       </c>
       <c r="Y6" t="n">
-        <v>992.1444829438183</v>
+        <v>990.6199928411709</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>739.6131040869277</v>
+        <v>225.4690585315619</v>
       </c>
       <c r="C7" t="n">
-        <v>739.6131040869277</v>
+        <v>225.4690585315619</v>
       </c>
       <c r="D7" t="n">
-        <v>655.2153915541271</v>
+        <v>69.83594543407666</v>
       </c>
       <c r="E7" t="n">
-        <v>499.6565794133297</v>
+        <v>69.83594543407666</v>
       </c>
       <c r="F7" t="n">
-        <v>342.3306446263026</v>
+        <v>69.83594543407666</v>
       </c>
       <c r="G7" t="n">
-        <v>174.0765907257482</v>
+        <v>69.83594543407666</v>
       </c>
       <c r="H7" t="n">
-        <v>174.0765907257482</v>
+        <v>69.83594543407666</v>
       </c>
       <c r="I7" t="n">
-        <v>40.98216536282604</v>
+        <v>69.83594543407666</v>
       </c>
       <c r="J7" t="n">
-        <v>40.98216536282604</v>
+        <v>39.45767526017861</v>
       </c>
       <c r="K7" t="n">
-        <v>122.8172064727679</v>
+        <v>121.2927163701205</v>
       </c>
       <c r="L7" t="n">
-        <v>286.9448463465677</v>
+        <v>285.4203562439203</v>
       </c>
       <c r="M7" t="n">
-        <v>473.2364246848317</v>
+        <v>471.7119345821843</v>
       </c>
       <c r="N7" t="n">
-        <v>656.4260587160409</v>
+        <v>654.9015686133935</v>
       </c>
       <c r="O7" t="n">
-        <v>819.1308257577489</v>
+        <v>817.6063356551015</v>
       </c>
       <c r="P7" t="n">
-        <v>939.0069915343274</v>
+        <v>937.48250143168</v>
       </c>
       <c r="Q7" t="n">
-        <v>942.4291879043784</v>
+        <v>940.904697801731</v>
       </c>
       <c r="R7" t="n">
-        <v>942.4291879043784</v>
+        <v>817.003708434308</v>
       </c>
       <c r="S7" t="n">
-        <v>739.6131040869277</v>
+        <v>817.003708434308</v>
       </c>
       <c r="T7" t="n">
-        <v>739.6131040869277</v>
+        <v>776.8871954688368</v>
       </c>
       <c r="U7" t="n">
-        <v>739.6131040869277</v>
+        <v>491.4484037107377</v>
       </c>
       <c r="V7" t="n">
-        <v>739.6131040869277</v>
+        <v>225.4690585315619</v>
       </c>
       <c r="W7" t="n">
-        <v>739.6131040869277</v>
+        <v>225.4690585315619</v>
       </c>
       <c r="X7" t="n">
-        <v>739.6131040869277</v>
+        <v>225.4690585315619</v>
       </c>
       <c r="Y7" t="n">
-        <v>739.6131040869277</v>
+        <v>225.4690585315619</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.4370641991123</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="C8" t="n">
-        <v>528.261562702043</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="D8" t="n">
-        <v>142.8204339187107</v>
+        <v>702.5094904747293</v>
       </c>
       <c r="E8" t="n">
-        <v>142.8204339187107</v>
+        <v>299.9259655912738</v>
       </c>
       <c r="F8" t="n">
-        <v>129.9663994890925</v>
+        <v>287.0719311616556</v>
       </c>
       <c r="G8" t="n">
-        <v>120.8440480174998</v>
+        <v>277.9495796900629</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>758.8032691226673</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1304.804169167248</v>
       </c>
       <c r="N8" t="n">
-        <v>1445.616517892115</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O8" t="n">
-        <v>1885.656118784443</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2233.843610915965</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>1681.888704297768</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V8" t="n">
-        <v>1681.888704297768</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="W8" t="n">
-        <v>1310.889669266056</v>
+        <v>1477.403224325005</v>
       </c>
       <c r="X8" t="n">
-        <v>921.4370641991123</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="Y8" t="n">
-        <v>921.4370641991123</v>
+        <v>1087.950619258062</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>554.6660347926879</v>
       </c>
       <c r="M9" t="n">
-        <v>963.7331842818107</v>
+        <v>1140.16403979929</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O9" t="n">
         <v>1725.662044805892</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>459.6685862805637</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="C10" t="n">
-        <v>289.4634683465529</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="D10" t="n">
-        <v>133.8303552490676</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="V10" t="n">
-        <v>682.7806474639203</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="W10" t="n">
-        <v>682.7806474639203</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="X10" t="n">
-        <v>682.7806474639203</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="Y10" t="n">
-        <v>459.6685862805637</v>
+        <v>237.3930558841897</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1642.069506034397</v>
+        <v>1320.171044252415</v>
       </c>
       <c r="C11" t="n">
-        <v>1343.834685824516</v>
+        <v>1021.936224042534</v>
       </c>
       <c r="D11" t="n">
-        <v>1053.334238328372</v>
+        <v>731.4357765463899</v>
       </c>
       <c r="E11" t="n">
-        <v>745.6913947321052</v>
+        <v>423.7929329501227</v>
       </c>
       <c r="F11" t="n">
-        <v>423.7376375492713</v>
+        <v>380.3412019289242</v>
       </c>
       <c r="G11" t="n">
-        <v>105.5155633244624</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="H11" t="n">
-        <v>105.5155633244624</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5072,19 +5072,19 @@
         <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2772.398080004633</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V11" t="n">
-        <v>2525.23195199534</v>
+        <v>2497.845413993113</v>
       </c>
       <c r="W11" t="n">
-        <v>2249.173598250816</v>
+        <v>2221.787060248589</v>
       </c>
       <c r="X11" t="n">
-        <v>2249.173598250816</v>
+        <v>1927.275136468834</v>
       </c>
       <c r="Y11" t="n">
-        <v>1947.623570458606</v>
+        <v>1625.725108676623</v>
       </c>
     </row>
     <row r="12">
@@ -5130,13 +5130,13 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>2262.088962721623</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551</v>
+        <v>493.0843669550997</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082772</v>
       </c>
       <c r="D13" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979802</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443721</v>
       </c>
       <c r="F13" t="n">
         <v>234.1241141445332</v>
@@ -5191,40 +5191,40 @@
         <v>160.8107415311671</v>
       </c>
       <c r="H13" t="n">
-        <v>100.2728717798494</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362512</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757663</v>
+        <v>300.2831496757664</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791393</v>
+        <v>557.4621512791394</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469766</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
         <v>1581.729743385192</v>
       </c>
       <c r="Q13" t="n">
-        <v>1678.203301484816</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R13" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T13" t="n">
         <v>1400.589220329742</v>
@@ -5236,13 +5236,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852098</v>
+        <v>850.6627251852096</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553813</v>
+        <v>711.523084255381</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592128</v>
+        <v>583.3517043592127</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1567.337172261709</v>
+        <v>1625.725108676624</v>
       </c>
       <c r="C14" t="n">
-        <v>1269.102352051828</v>
+        <v>1327.490288466742</v>
       </c>
       <c r="D14" t="n">
-        <v>978.6019045556837</v>
+        <v>1239.080171854346</v>
       </c>
       <c r="E14" t="n">
-        <v>670.9590609594167</v>
+        <v>931.4373282580789</v>
       </c>
       <c r="F14" t="n">
-        <v>349.0053037765828</v>
+        <v>609.483571075245</v>
       </c>
       <c r="G14" t="n">
-        <v>334.6579324707833</v>
+        <v>291.2614968504366</v>
       </c>
       <c r="H14" t="n">
-        <v>105.5155633244623</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5309,19 +5309,19 @@
         <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2745.011542002408</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V14" t="n">
-        <v>2745.011542002408</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W14" t="n">
-        <v>2468.953188257883</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2174.441264478128</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y14" t="n">
-        <v>1872.891236685918</v>
+        <v>1625.725108676624</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L15" t="n">
-        <v>596.176270190801</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.947919817482</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1314.578167032715</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>1831.098449623696</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2236.719818340093</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5413,7 +5413,7 @@
         <v>493.0843669551004</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082779</v>
+        <v>417.819930308278</v>
       </c>
       <c r="D16" t="n">
         <v>357.127498497981</v>
@@ -5422,7 +5422,7 @@
         <v>296.5093676443719</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445332</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
         <v>160.810741531167</v>
@@ -5434,22 +5434,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K16" t="n">
-        <v>300.283149675766</v>
+        <v>300.2831496757664</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791391</v>
+        <v>557.4621512791394</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469764</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
         <v>1581.729743385192</v>
@@ -5467,19 +5467,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V16" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852101</v>
+        <v>850.66272518521</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553816</v>
+        <v>711.5230842553814</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975446</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924335</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J17" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K17" t="n">
         <v>565.7512566404057</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5549,13 +5549,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5592,19 +5592,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>865.4243596646552</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O18" t="n">
         <v>1740.468202408463</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.6987703122989</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222408</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L19" t="n">
-        <v>442.7178209184691</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567331</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879423</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5774,10 +5774,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5792,10 +5792,10 @@
         <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5829,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M21" t="n">
-        <v>1493.196009291336</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>2009.716291882317</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
         <v>2146.089571124861</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5911,25 +5911,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214669</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q22" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292424</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
         <v>1059.071548358934</v>
@@ -6023,7 +6023,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
         <v>2405.467337224691</v>
@@ -6066,22 +6066,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L24" t="n">
-        <v>62.11912770411553</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M24" t="n">
-        <v>689.8907773307967</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N24" t="n">
-        <v>1345.668748541356</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>1862.189031132337</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
         <v>2146.089571124861</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6154,19 +6154,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>499.9530296343043</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N25" t="n">
-        <v>683.1426636655135</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O25" t="n">
-        <v>845.8474307072216</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1834.146244299089</v>
+        <v>1835.670734401736</v>
       </c>
       <c r="C26" t="n">
-        <v>1535.911424089208</v>
+        <v>1537.435914191855</v>
       </c>
       <c r="D26" t="n">
-        <v>1245.410976593064</v>
+        <v>1246.935466695711</v>
       </c>
       <c r="E26" t="n">
-        <v>937.7681329967965</v>
+        <v>939.292623099444</v>
       </c>
       <c r="F26" t="n">
-        <v>615.8143758139626</v>
+        <v>617.3388659166103</v>
       </c>
       <c r="G26" t="n">
-        <v>297.5923015891541</v>
+        <v>299.1167916918016</v>
       </c>
       <c r="H26" t="n">
-        <v>68.4499324428331</v>
+        <v>69.97442254548054</v>
       </c>
       <c r="I26" t="n">
-        <v>68.4499324428331</v>
+        <v>69.97442254548054</v>
       </c>
       <c r="J26" t="n">
-        <v>213.0997053516612</v>
+        <v>214.6241954543086</v>
       </c>
       <c r="K26" t="n">
-        <v>572.082061379123</v>
+        <v>573.6065514817705</v>
       </c>
       <c r="L26" t="n">
-        <v>1065.402353097652</v>
+        <v>1159.978204929873</v>
       </c>
       <c r="M26" t="n">
-        <v>1611.403253142233</v>
+        <v>1755.919960014605</v>
       </c>
       <c r="N26" t="n">
-        <v>2232.265898509268</v>
+        <v>2376.782605381641</v>
       </c>
       <c r="O26" t="n">
-        <v>2672.305499401597</v>
+        <v>2909.873568003542</v>
       </c>
       <c r="P26" t="n">
-        <v>3113.544353262692</v>
+        <v>3258.061060135065</v>
       </c>
       <c r="Q26" t="n">
-        <v>3366.682115143642</v>
+        <v>3442.906620276013</v>
       </c>
       <c r="R26" t="n">
-        <v>3422.496622141655</v>
+        <v>3498.721127274026</v>
       </c>
       <c r="S26" t="n">
-        <v>3422.496622141655</v>
+        <v>3427.148253502266</v>
       </c>
       <c r="T26" t="n">
-        <v>3419.798790327293</v>
+        <v>3298.588332348871</v>
       </c>
       <c r="U26" t="n">
-        <v>3258.98674204908</v>
+        <v>3137.776284070658</v>
       </c>
       <c r="V26" t="n">
-        <v>3011.820614039787</v>
+        <v>2890.610156061364</v>
       </c>
       <c r="W26" t="n">
-        <v>2735.762260295263</v>
+        <v>2614.55180231684</v>
       </c>
       <c r="X26" t="n">
-        <v>2441.250336515508</v>
+        <v>2320.039878537085</v>
       </c>
       <c r="Y26" t="n">
-        <v>2139.700308723297</v>
+        <v>2141.224798825945</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>867.8159155828641</v>
+        <v>869.3404056855115</v>
       </c>
       <c r="C27" t="n">
-        <v>717.1616851429563</v>
+        <v>718.6861752456037</v>
       </c>
       <c r="D27" t="n">
-        <v>587.0727177644367</v>
+        <v>588.5972078670841</v>
       </c>
       <c r="E27" t="n">
-        <v>450.6262268753243</v>
+        <v>452.1507169779717</v>
       </c>
       <c r="F27" t="n">
-        <v>326.1944207584561</v>
+        <v>327.7189108611036</v>
       </c>
       <c r="G27" t="n">
-        <v>206.1346028303206</v>
+        <v>207.659092932968</v>
       </c>
       <c r="H27" t="n">
-        <v>117.8371864309215</v>
+        <v>119.361676533569</v>
       </c>
       <c r="I27" t="n">
-        <v>68.4499324428331</v>
+        <v>69.97442254548054</v>
       </c>
       <c r="J27" t="n">
-        <v>181.5649146625605</v>
+        <v>69.97442254548054</v>
       </c>
       <c r="K27" t="n">
-        <v>501.304060724787</v>
+        <v>69.97442254548054</v>
       </c>
       <c r="L27" t="n">
-        <v>984.8701466231003</v>
+        <v>553.5405084437938</v>
       </c>
       <c r="M27" t="n">
-        <v>984.8701466231003</v>
+        <v>576.0252434482885</v>
       </c>
       <c r="N27" t="n">
-        <v>1230.2787245562</v>
+        <v>1231.803214658848</v>
       </c>
       <c r="O27" t="n">
-        <v>1746.799007147181</v>
+        <v>1748.323497249829</v>
       </c>
       <c r="P27" t="n">
-        <v>2152.420375863579</v>
+        <v>2153.944865966226</v>
       </c>
       <c r="Q27" t="n">
-        <v>2386.785467418469</v>
+        <v>2388.309957521117</v>
       </c>
       <c r="R27" t="n">
-        <v>2362.868424316533</v>
+        <v>2364.392914419181</v>
       </c>
       <c r="S27" t="n">
-        <v>2227.937747216402</v>
+        <v>2229.46223731905</v>
       </c>
       <c r="T27" t="n">
-        <v>2050.953935415311</v>
+        <v>2052.478425517958</v>
       </c>
       <c r="U27" t="n">
-        <v>1840.890792093953</v>
+        <v>1842.4152821966</v>
       </c>
       <c r="V27" t="n">
-        <v>1618.35079046502</v>
+        <v>1619.875280567667</v>
       </c>
       <c r="W27" t="n">
-        <v>1388.233544598306</v>
+        <v>1389.758034700954</v>
       </c>
       <c r="X27" t="n">
-        <v>1198.926466948318</v>
+        <v>1200.450957050966</v>
       </c>
       <c r="Y27" t="n">
-        <v>1019.612250023825</v>
+        <v>1021.136740126473</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>499.415171693818</v>
+        <v>500.9396617964653</v>
       </c>
       <c r="C28" t="n">
-        <v>424.1507350469955</v>
+        <v>425.675225149643</v>
       </c>
       <c r="D28" t="n">
-        <v>363.4583032366986</v>
+        <v>364.982793339346</v>
       </c>
       <c r="E28" t="n">
-        <v>302.8401723830895</v>
+        <v>304.3646624857369</v>
       </c>
       <c r="F28" t="n">
-        <v>240.4549188832507</v>
+        <v>241.9794089858981</v>
       </c>
       <c r="G28" t="n">
-        <v>167.1415462698846</v>
+        <v>168.666036372532</v>
       </c>
       <c r="H28" t="n">
-        <v>106.6036765185669</v>
+        <v>108.1281666212143</v>
       </c>
       <c r="I28" t="n">
-        <v>68.4499324428331</v>
+        <v>69.97442254548054</v>
       </c>
       <c r="J28" t="n">
-        <v>131.7275515749691</v>
+        <v>133.2520416776162</v>
       </c>
       <c r="K28" t="n">
-        <v>306.6139544144842</v>
+        <v>308.1384445171315</v>
       </c>
       <c r="L28" t="n">
-        <v>563.7929560178573</v>
+        <v>565.3174461205045</v>
       </c>
       <c r="M28" t="n">
-        <v>843.1358960856946</v>
+        <v>844.6603861883417</v>
       </c>
       <c r="N28" t="n">
-        <v>1119.376891846477</v>
+        <v>1120.901381949124</v>
       </c>
       <c r="O28" t="n">
-        <v>1375.133020617758</v>
+        <v>1376.657510720406</v>
       </c>
       <c r="P28" t="n">
-        <v>1588.06054812391</v>
+        <v>1589.585038226557</v>
       </c>
       <c r="Q28" t="n">
-        <v>1684.534106223535</v>
+        <v>1686.058596326181</v>
       </c>
       <c r="R28" t="n">
-        <v>1655.5737981433</v>
+        <v>1657.098288245947</v>
       </c>
       <c r="S28" t="n">
-        <v>1547.698395613037</v>
+        <v>1549.222885715684</v>
       </c>
       <c r="T28" t="n">
-        <v>1406.92002506846</v>
+        <v>1408.444515171107</v>
       </c>
       <c r="U28" t="n">
-        <v>1216.421914597549</v>
+        <v>1217.946404700196</v>
       </c>
       <c r="V28" t="n">
-        <v>1045.383250705562</v>
+        <v>1046.907740808209</v>
       </c>
       <c r="W28" t="n">
-        <v>856.9935299239279</v>
+        <v>858.5180200265751</v>
       </c>
       <c r="X28" t="n">
-        <v>717.8538889940993</v>
+        <v>719.3783790967466</v>
       </c>
       <c r="Y28" t="n">
-        <v>589.682509097931</v>
+        <v>591.2069992005783</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1636.711281188294</v>
+        <v>1712.935786320666</v>
       </c>
       <c r="C29" t="n">
-        <v>1338.476460978413</v>
+        <v>1414.700966110785</v>
       </c>
       <c r="D29" t="n">
-        <v>1047.976013482269</v>
+        <v>1124.200518614641</v>
       </c>
       <c r="E29" t="n">
-        <v>740.3331698860017</v>
+        <v>816.5576750183736</v>
       </c>
       <c r="F29" t="n">
-        <v>418.3794127031677</v>
+        <v>617.3388659166101</v>
       </c>
       <c r="G29" t="n">
-        <v>100.1573384783588</v>
+        <v>299.1167916918015</v>
       </c>
       <c r="H29" t="n">
-        <v>100.1573384783588</v>
+        <v>69.97442254548054</v>
       </c>
       <c r="I29" t="n">
-        <v>68.4499324428331</v>
+        <v>69.97442254548054</v>
       </c>
       <c r="J29" t="n">
-        <v>306.1510670812345</v>
+        <v>214.6241954543086</v>
       </c>
       <c r="K29" t="n">
-        <v>733.4256248486979</v>
+        <v>666.6579132113437</v>
       </c>
       <c r="L29" t="n">
-        <v>1226.745916567227</v>
+        <v>1209.919059970025</v>
       </c>
       <c r="M29" t="n">
-        <v>1772.746816611807</v>
+        <v>1755.919960014605</v>
       </c>
       <c r="N29" t="n">
-        <v>2300.55810024927</v>
+        <v>2376.782605381641</v>
       </c>
       <c r="O29" t="n">
-        <v>2740.597701141598</v>
+        <v>2816.822206273969</v>
       </c>
       <c r="P29" t="n">
-        <v>3181.836555002693</v>
+        <v>3258.061060135065</v>
       </c>
       <c r="Q29" t="n">
-        <v>3366.682115143642</v>
+        <v>3442.906620276013</v>
       </c>
       <c r="R29" t="n">
-        <v>3422.496622141655</v>
+        <v>3498.721127274026</v>
       </c>
       <c r="S29" t="n">
-        <v>3350.923748369893</v>
+        <v>3427.148253502266</v>
       </c>
       <c r="T29" t="n">
-        <v>3222.363827216498</v>
+        <v>3298.588332348871</v>
       </c>
       <c r="U29" t="n">
-        <v>3061.551778938285</v>
+        <v>3137.776284070657</v>
       </c>
       <c r="V29" t="n">
-        <v>2814.385650928992</v>
+        <v>2890.610156061364</v>
       </c>
       <c r="W29" t="n">
-        <v>2538.327297184468</v>
+        <v>2614.55180231684</v>
       </c>
       <c r="X29" t="n">
-        <v>2243.815373404713</v>
+        <v>2320.039878537085</v>
       </c>
       <c r="Y29" t="n">
-        <v>1942.265345612502</v>
+        <v>2018.489850744875</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>867.8159155828641</v>
+        <v>869.3404056855115</v>
       </c>
       <c r="C30" t="n">
-        <v>717.1616851429563</v>
+        <v>718.6861752456037</v>
       </c>
       <c r="D30" t="n">
-        <v>587.0727177644367</v>
+        <v>588.5972078670841</v>
       </c>
       <c r="E30" t="n">
-        <v>450.6262268753243</v>
+        <v>452.1507169779717</v>
       </c>
       <c r="F30" t="n">
-        <v>326.1944207584561</v>
+        <v>327.7189108611036</v>
       </c>
       <c r="G30" t="n">
-        <v>206.1346028303206</v>
+        <v>207.659092932968</v>
       </c>
       <c r="H30" t="n">
-        <v>117.8371864309215</v>
+        <v>119.361676533569</v>
       </c>
       <c r="I30" t="n">
-        <v>68.4499324428331</v>
+        <v>69.97442254548054</v>
       </c>
       <c r="J30" t="n">
-        <v>181.5649146625605</v>
+        <v>69.97442254548054</v>
       </c>
       <c r="K30" t="n">
-        <v>181.5649146625605</v>
+        <v>389.713568607707</v>
       </c>
       <c r="L30" t="n">
-        <v>181.5649146625605</v>
+        <v>389.713568607707</v>
       </c>
       <c r="M30" t="n">
-        <v>809.3365642892417</v>
+        <v>1017.485218234388</v>
       </c>
       <c r="N30" t="n">
-        <v>1465.114535499801</v>
+        <v>1231.803214658848</v>
       </c>
       <c r="O30" t="n">
-        <v>1981.634818090782</v>
+        <v>1748.323497249829</v>
       </c>
       <c r="P30" t="n">
-        <v>2386.785467418469</v>
+        <v>2153.944865966226</v>
       </c>
       <c r="Q30" t="n">
-        <v>2386.785467418469</v>
+        <v>2388.309957521117</v>
       </c>
       <c r="R30" t="n">
-        <v>2362.868424316533</v>
+        <v>2364.392914419181</v>
       </c>
       <c r="S30" t="n">
-        <v>2227.937747216402</v>
+        <v>2229.46223731905</v>
       </c>
       <c r="T30" t="n">
-        <v>2050.953935415311</v>
+        <v>2052.478425517958</v>
       </c>
       <c r="U30" t="n">
-        <v>1840.890792093953</v>
+        <v>1842.4152821966</v>
       </c>
       <c r="V30" t="n">
-        <v>1618.35079046502</v>
+        <v>1619.875280567667</v>
       </c>
       <c r="W30" t="n">
-        <v>1388.233544598306</v>
+        <v>1389.758034700954</v>
       </c>
       <c r="X30" t="n">
-        <v>1198.926466948318</v>
+        <v>1200.450957050966</v>
       </c>
       <c r="Y30" t="n">
-        <v>1019.612250023825</v>
+        <v>1021.136740126473</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>499.4151716938182</v>
+        <v>500.9396617964657</v>
       </c>
       <c r="C31" t="n">
-        <v>424.1507350469957</v>
+        <v>425.6752251496432</v>
       </c>
       <c r="D31" t="n">
-        <v>363.4583032366987</v>
+        <v>364.982793339346</v>
       </c>
       <c r="E31" t="n">
-        <v>302.8401723830896</v>
+        <v>304.3646624857372</v>
       </c>
       <c r="F31" t="n">
-        <v>240.4549188832508</v>
+        <v>241.9794089858985</v>
       </c>
       <c r="G31" t="n">
-        <v>167.1415462698846</v>
+        <v>168.6660363725323</v>
       </c>
       <c r="H31" t="n">
-        <v>106.6036765185669</v>
+        <v>108.1281666212146</v>
       </c>
       <c r="I31" t="n">
-        <v>68.4499324428331</v>
+        <v>69.97442254548054</v>
       </c>
       <c r="J31" t="n">
-        <v>131.7275515749689</v>
+        <v>133.2520416776164</v>
       </c>
       <c r="K31" t="n">
-        <v>306.6139544144839</v>
+        <v>308.1384445171315</v>
       </c>
       <c r="L31" t="n">
-        <v>563.792956017858</v>
+        <v>565.3174461205044</v>
       </c>
       <c r="M31" t="n">
-        <v>843.1358960856953</v>
+        <v>844.6603861883418</v>
       </c>
       <c r="N31" t="n">
-        <v>1119.376891846478</v>
+        <v>1120.901381949124</v>
       </c>
       <c r="O31" t="n">
-        <v>1375.133020617759</v>
+        <v>1376.657510720406</v>
       </c>
       <c r="P31" t="n">
-        <v>1588.060548123911</v>
+        <v>1589.585038226558</v>
       </c>
       <c r="Q31" t="n">
-        <v>1684.534106223535</v>
+        <v>1686.058596326182</v>
       </c>
       <c r="R31" t="n">
-        <v>1655.5737981433</v>
+        <v>1657.098288245947</v>
       </c>
       <c r="S31" t="n">
-        <v>1547.698395613038</v>
+        <v>1549.222885715685</v>
       </c>
       <c r="T31" t="n">
-        <v>1406.92002506846</v>
+        <v>1408.444515171107</v>
       </c>
       <c r="U31" t="n">
-        <v>1216.42191459755</v>
+        <v>1217.946404700197</v>
       </c>
       <c r="V31" t="n">
-        <v>1045.383250705562</v>
+        <v>1046.907740808209</v>
       </c>
       <c r="W31" t="n">
-        <v>856.9935299239281</v>
+        <v>858.5180200265754</v>
       </c>
       <c r="X31" t="n">
-        <v>717.8538889940995</v>
+        <v>719.3783790967469</v>
       </c>
       <c r="Y31" t="n">
-        <v>589.6825090979312</v>
+        <v>591.2069992005786</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C32" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D32" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E32" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F32" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G32" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H32" t="n">
         <v>68.77950792924223</v>
@@ -6698,19 +6698,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J32" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K32" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L32" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M32" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N32" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O32" t="n">
         <v>2572.923332933306</v>
@@ -6743,7 +6743,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y32" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="33">
@@ -6780,13 +6780,13 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K33" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L33" t="n">
-        <v>978.5393418843826</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M33" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N33" t="n">
         <v>1223.947919817482</v>
@@ -6856,22 +6856,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>67.69877031229942</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K34" t="n">
-        <v>149.5338114222413</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L34" t="n">
-        <v>442.7178209184696</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M34" t="n">
-        <v>629.0093992567336</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N34" t="n">
-        <v>812.1990332879427</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O34" t="n">
-        <v>974.9038003296507</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P34" t="n">
         <v>1094.779966106229</v>
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6962,13 +6962,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
@@ -6977,7 +6977,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7014,22 +7014,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="K36" t="n">
-        <v>96.81867335321709</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="L36" t="n">
-        <v>580.3847592515303</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.156408878212</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N36" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
         <v>2380.454662679751</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7105,16 +7105,16 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599516</v>
@@ -7163,10 +7163,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,16 +7208,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7251,16 +7251,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7333,25 +7333,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222406</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960404</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343044</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655136</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P40" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1716.479455850246</v>
+        <v>1428.779014516731</v>
       </c>
       <c r="C41" t="n">
-        <v>1436.800632925386</v>
+        <v>1144.120190589889</v>
       </c>
       <c r="D41" t="n">
-        <v>1164.856182714263</v>
+        <v>867.1957393767848</v>
       </c>
       <c r="E41" t="n">
-        <v>875.7693364030165</v>
+        <v>615.8837008044991</v>
       </c>
       <c r="F41" t="n">
-        <v>572.3715765052034</v>
+        <v>307.5059399047046</v>
       </c>
       <c r="G41" t="n">
-        <v>272.7054995654156</v>
+        <v>307.5059399047046</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>91.93956704142298</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,25 +7436,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>3047.959507717055</v>
       </c>
       <c r="T41" t="n">
-        <v>3105.956385205776</v>
+        <v>2932.975582846699</v>
       </c>
       <c r="U41" t="n">
-        <v>3048.539967175132</v>
+        <v>2785.739530851525</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.92983645086</v>
+        <v>2552.149399125271</v>
       </c>
       <c r="W41" t="n">
-        <v>2562.427479991357</v>
+        <v>2289.667041663787</v>
       </c>
       <c r="X41" t="n">
-        <v>2286.471553496623</v>
+        <v>2008.731114167071</v>
       </c>
       <c r="Y41" t="n">
-        <v>2003.477522989434</v>
+        <v>1720.7570826579</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>363.1923859599536</v>
+        <v>398.0523929738246</v>
       </c>
       <c r="C43" t="n">
-        <v>306.4839465981521</v>
+        <v>336.3639526100416</v>
       </c>
       <c r="D43" t="n">
-        <v>264.3475120728762</v>
+        <v>289.247517082784</v>
       </c>
       <c r="E43" t="n">
-        <v>222.285378504288</v>
+        <v>242.2053825122143</v>
       </c>
       <c r="F43" t="n">
-        <v>178.4561222894702</v>
+        <v>193.396125295415</v>
       </c>
       <c r="G43" t="n">
-        <v>123.698746961125</v>
+        <v>133.6587489650882</v>
       </c>
       <c r="H43" t="n">
-        <v>81.71687449482833</v>
+        <v>86.69687549680992</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>143.5834797753004</v>
+        <v>138.7025807932582</v>
       </c>
       <c r="K43" t="n">
-        <v>225.4185208852423</v>
+        <v>220.5376219032001</v>
       </c>
       <c r="L43" t="n">
-        <v>500.7842554276643</v>
+        <v>384.6652617769998</v>
       </c>
       <c r="M43" t="n">
-        <v>689.6383923676901</v>
+        <v>570.9568401152638</v>
       </c>
       <c r="N43" t="n">
-        <v>984.0661210675216</v>
+        <v>860.5036698330532</v>
       </c>
       <c r="O43" t="n">
-        <v>1258.008982777852</v>
+        <v>1124.974607436397</v>
       </c>
       <c r="P43" t="n">
-        <v>1377.885148554431</v>
+        <v>1351.207968899555</v>
       </c>
       <c r="Q43" t="n">
-        <v>1381.307344924481</v>
+        <v>1460.987360956187</v>
       </c>
       <c r="R43" t="n">
-        <v>1370.903034129268</v>
+        <v>1445.603049158991</v>
       </c>
       <c r="S43" t="n">
-        <v>1281.583628884026</v>
+        <v>1351.303642911769</v>
       </c>
       <c r="T43" t="n">
-        <v>1159.36125562447</v>
+        <v>1224.10126865023</v>
       </c>
       <c r="U43" t="n">
-        <v>987.41914243858</v>
+        <v>1047.179154462359</v>
       </c>
       <c r="V43" t="n">
-        <v>834.9364758316135</v>
+        <v>889.716486853411</v>
       </c>
       <c r="W43" t="n">
-        <v>665.1027523350004</v>
+        <v>714.9027623548162</v>
       </c>
       <c r="X43" t="n">
-        <v>544.5191086901929</v>
+        <v>589.3391177080271</v>
       </c>
       <c r="Y43" t="n">
-        <v>434.9037260790456</v>
+        <v>474.7437340948982</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1741.319894185571</v>
+        <v>1486.775892005453</v>
       </c>
       <c r="C44" t="n">
-        <v>1461.641071260711</v>
+        <v>1202.117068078611</v>
       </c>
       <c r="D44" t="n">
-        <v>1189.696621049588</v>
+        <v>969.209813858907</v>
       </c>
       <c r="E44" t="n">
-        <v>900.6097747383417</v>
+        <v>675.1429665456791</v>
       </c>
       <c r="F44" t="n">
-        <v>597.2120148405288</v>
+        <v>366.7652056458846</v>
       </c>
       <c r="G44" t="n">
-        <v>297.5459379007415</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>86.9595660394414</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7676,22 +7676,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>3105.956385205776</v>
+        <v>2990.972460335421</v>
       </c>
       <c r="U44" t="n">
-        <v>3073.380405510457</v>
+        <v>2843.736408340247</v>
       </c>
       <c r="V44" t="n">
-        <v>2844.770274786185</v>
+        <v>2610.146276613993</v>
       </c>
       <c r="W44" t="n">
-        <v>2587.267918326682</v>
+        <v>2347.663919152509</v>
       </c>
       <c r="X44" t="n">
-        <v>2311.311991831948</v>
+        <v>2066.727991655793</v>
       </c>
       <c r="Y44" t="n">
-        <v>2028.317961324758</v>
+        <v>1778.753960146622</v>
       </c>
     </row>
     <row r="45">
@@ -7725,19 +7725,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M45" t="n">
-        <v>1606.310991511064</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N45" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>363.1923859599536</v>
+        <v>398.0523929738247</v>
       </c>
       <c r="C46" t="n">
-        <v>306.4839465981521</v>
+        <v>336.3639526100417</v>
       </c>
       <c r="D46" t="n">
-        <v>264.3475120728762</v>
+        <v>289.2475170827842</v>
       </c>
       <c r="E46" t="n">
-        <v>222.285378504288</v>
+        <v>242.2053825122144</v>
       </c>
       <c r="F46" t="n">
-        <v>178.4561222894702</v>
+        <v>193.396125295415</v>
       </c>
       <c r="G46" t="n">
-        <v>123.698746961125</v>
+        <v>133.6587489650883</v>
       </c>
       <c r="H46" t="n">
-        <v>81.71687449482833</v>
+        <v>86.69687549680994</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>143.5834797753004</v>
+        <v>138.7025807932582</v>
       </c>
       <c r="K46" t="n">
-        <v>336.6566155538646</v>
+        <v>326.8948175897802</v>
       </c>
       <c r="L46" t="n">
-        <v>503.3468140294261</v>
+        <v>592.788628025216</v>
       </c>
       <c r="M46" t="n">
-        <v>689.6383923676901</v>
+        <v>779.08020636348</v>
       </c>
       <c r="N46" t="n">
-        <v>984.0661210675216</v>
+        <v>1068.627036081269</v>
       </c>
       <c r="O46" t="n">
-        <v>1146.77088810923</v>
+        <v>1231.331803122977</v>
       </c>
       <c r="P46" t="n">
-        <v>1266.647053885808</v>
+        <v>1457.565164586136</v>
       </c>
       <c r="Q46" t="n">
-        <v>1381.307344924481</v>
+        <v>1460.987360956187</v>
       </c>
       <c r="R46" t="n">
-        <v>1370.903034129268</v>
+        <v>1445.603049158992</v>
       </c>
       <c r="S46" t="n">
-        <v>1281.583628884026</v>
+        <v>1351.303642911769</v>
       </c>
       <c r="T46" t="n">
-        <v>1159.36125562447</v>
+        <v>1224.101268650231</v>
       </c>
       <c r="U46" t="n">
-        <v>987.41914243858</v>
+        <v>1047.179154462359</v>
       </c>
       <c r="V46" t="n">
-        <v>834.9364758316135</v>
+        <v>889.7164868534112</v>
       </c>
       <c r="W46" t="n">
-        <v>665.1027523350004</v>
+        <v>714.9027623548164</v>
       </c>
       <c r="X46" t="n">
-        <v>544.5191086901929</v>
+        <v>589.3391177080273</v>
       </c>
       <c r="Y46" t="n">
-        <v>434.9037260790456</v>
+        <v>474.7437340948983</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>183.167935679113</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>646.4691104827243</v>
       </c>
       <c r="M2" t="n">
         <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>661.3955583731097</v>
+        <v>642.3394320900168</v>
       </c>
       <c r="O2" t="n">
-        <v>453.0806723089363</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,22 +8058,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>585.6080628015445</v>
       </c>
       <c r="N3" t="n">
-        <v>517.8278884705929</v>
+        <v>578.5930536063993</v>
       </c>
       <c r="O3" t="n">
-        <v>604.9646259242145</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>214.1565621793146</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>646.4691104827243</v>
       </c>
       <c r="M5" t="n">
-        <v>658.8355422630659</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>661.3955583731097</v>
+        <v>615.047621987585</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8298,16 +8298,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>387.3822793589753</v>
+        <v>585.6080628015445</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>319.1984868750834</v>
       </c>
       <c r="O6" t="n">
-        <v>604.9646259242145</v>
+        <v>585.9084996411216</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>363.2059172909298</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>277.6349551468923</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,22 +8529,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>279.5693555729969</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>333.2595653118437</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8778,16 +8778,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O12" t="n">
-        <v>212.2488719779076</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8933,7 +8933,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M14" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N14" t="n">
         <v>682.2612020826953</v>
@@ -9003,19 +9003,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>306.543171528089</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>236.1748646101141</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,13 +9249,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N18" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9477,25 +9477,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>224.834151932995</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
         <v>327.7205688679246</v>
@@ -9714,16 +9714,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>105.1563108732267</v>
       </c>
       <c r="K24" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
@@ -9732,7 +9732,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>373.8515870339854</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9951,19 +9951,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>115.0989755892056</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10188,10 +10188,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>90.06034685691823</v>
@@ -10200,16 +10200,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>301.8549375253377</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>496.3264449482919</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10428,16 +10428,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>515.2544481366739</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10662,13 +10662,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.2265410010273</v>
       </c>
       <c r="K36" t="n">
-        <v>124.646981443537</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
         <v>726.4998994499999</v>
@@ -10680,7 +10680,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
         <v>90.98815315591399</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10908,10 +10908,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11136,28 +11136,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>405.2384673331027</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,22 +11373,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O45" t="n">
-        <v>228.1998931286865</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>275.7170059000196</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.9624712641434</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>27.11267262220392</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>291.5668045419573</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.49213974509621e-12</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>200.0694275749103</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>300.8359558898189</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414339</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -24491,10 +24491,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>124.6034684456426</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24509,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>121.5075986002596</v>
       </c>
     </row>
     <row r="27">
@@ -24689,16 +24689,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>121.5075986002596</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>11.57213928897292</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -25634,19 +25634,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>42.32726065353331</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>301.5996171623514</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>24.59203395197261</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>52.48670772187273</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>108.9038846296903</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>83.99123663292185</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>43.57702502346692</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>213.4107091346488</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>29.52223494393439</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25913,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>52.48670772187273</v>
+        <v>57.41690871383452</v>
       </c>
       <c r="T44" t="n">
-        <v>108.9038846296903</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>108.5832705848951</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>737713.6043618621</v>
+        <v>736562.9223121617</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>737713.6043618621</v>
+        <v>736562.9223121618</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>708530.731157089</v>
+        <v>708530.7311570889</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>708530.731157089</v>
+        <v>708530.7311570889</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>731754.1880472109</v>
+        <v>737346.5150323932</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>731754.1880472108</v>
+        <v>737346.5150323932</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>729368.3182002845</v>
+        <v>723775.9912151021</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>729368.3182002844</v>
+        <v>723775.9912151021</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>577062.9698987419</v>
       </c>
       <c r="C2" t="n">
-        <v>577062.9698987419</v>
+        <v>577062.9698987418</v>
       </c>
       <c r="D2" t="n">
+        <v>577062.9698987416</v>
+      </c>
+      <c r="E2" t="n">
+        <v>542323.592586362</v>
+      </c>
+      <c r="F2" t="n">
+        <v>542323.592586362</v>
+      </c>
+      <c r="G2" t="n">
+        <v>577062.9698987418</v>
+      </c>
+      <c r="H2" t="n">
+        <v>577062.9698987418</v>
+      </c>
+      <c r="I2" t="n">
         <v>577062.9698987417</v>
       </c>
-      <c r="E2" t="n">
-        <v>542323.5925863622</v>
-      </c>
-      <c r="F2" t="n">
-        <v>542323.5925863627</v>
-      </c>
-      <c r="G2" t="n">
-        <v>577062.9698987413</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>566589.5158497751</v>
+      </c>
+      <c r="K2" t="n">
+        <v>566589.5158497754</v>
+      </c>
+      <c r="L2" t="n">
+        <v>577062.9698987416</v>
+      </c>
+      <c r="M2" t="n">
         <v>577062.9698987415</v>
       </c>
-      <c r="I2" t="n">
-        <v>577062.9698987415</v>
-      </c>
-      <c r="J2" t="n">
-        <v>561880.1878622537</v>
-      </c>
-      <c r="K2" t="n">
-        <v>561880.1878622535</v>
-      </c>
-      <c r="L2" t="n">
-        <v>577062.9698987417</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>577062.9698987416</v>
       </c>
-      <c r="N2" t="n">
-        <v>577062.9698987417</v>
-      </c>
       <c r="O2" t="n">
-        <v>559871.0343069482</v>
+        <v>555161.7063194267</v>
       </c>
       <c r="P2" t="n">
-        <v>559871.0343069481</v>
+        <v>555161.7063194267</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>171675.8275360794</v>
+        <v>165289.6813277105</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>24581.72344984795</v>
+        <v>30501.1279571651</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301435</v>
+        <v>29094.95587301436</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>200837.4980720423</v>
+        <v>200837.4980720422</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>58189.91174602872</v>
+        <v>58189.9117460287</v>
       </c>
       <c r="M3" t="n">
-        <v>46121.92123989166</v>
+        <v>46121.92123989169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>31699.45768316104</v>
+        <v>27755.2968895916</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>228125.0593031787</v>
+        <v>232110.182484808</v>
       </c>
       <c r="C4" t="n">
-        <v>228125.0593031787</v>
+        <v>232110.182484808</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
       </c>
       <c r="E4" t="n">
-        <v>161760.5563326216</v>
+        <v>161760.5563326215</v>
       </c>
       <c r="F4" t="n">
-        <v>161760.5563326216</v>
+        <v>161760.5563326215</v>
       </c>
       <c r="G4" t="n">
         <v>186364.8769761036</v>
       </c>
       <c r="H4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="I4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="J4" t="n">
-        <v>176034.0942198337</v>
+        <v>179471.2350158119</v>
       </c>
       <c r="K4" t="n">
-        <v>176034.0942198337</v>
+        <v>179471.2350158119</v>
       </c>
       <c r="L4" t="n">
         <v>186364.8769761035</v>
       </c>
       <c r="M4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="N4" t="n">
         <v>186364.8769761036</v>
       </c>
       <c r="O4" t="n">
-        <v>174187.3867511902</v>
+        <v>170852.3125438943</v>
       </c>
       <c r="P4" t="n">
-        <v>174187.3867511902</v>
+        <v>170852.3125438943</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64774.0456757478</v>
+        <v>63615.43319773574</v>
       </c>
       <c r="C5" t="n">
-        <v>64774.0456757478</v>
+        <v>63615.43319773574</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,16 +26485,16 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>59923.70111033446</v>
+        <v>61082.31358834651</v>
       </c>
       <c r="K5" t="n">
-        <v>59923.70111033446</v>
+        <v>61082.31358834651</v>
       </c>
       <c r="L5" t="n">
         <v>58169.76931551966</v>
@@ -26506,10 +26506,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>56656.67380330599</v>
+        <v>56242.19673611275</v>
       </c>
       <c r="P5" t="n">
-        <v>56656.67380330599</v>
+        <v>56242.19673611275</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112488.0373837361</v>
+        <v>116047.6728884877</v>
       </c>
       <c r="C6" t="n">
-        <v>284163.8649198154</v>
+        <v>281337.354216198</v>
       </c>
       <c r="D6" t="n">
-        <v>271319.8938669303</v>
+        <v>265400.4893596129</v>
       </c>
       <c r="E6" t="n">
-        <v>194997.8156071193</v>
+        <v>194889.2550530181</v>
       </c>
       <c r="F6" t="n">
-        <v>325450.746744832</v>
+        <v>325342.1861907302</v>
       </c>
       <c r="G6" t="n">
-        <v>303433.3677341037</v>
+        <v>303433.3677341042</v>
       </c>
       <c r="H6" t="n">
-        <v>332528.3236071182</v>
+        <v>332528.3236071186</v>
       </c>
       <c r="I6" t="n">
-        <v>332528.3236071182</v>
+        <v>332528.3236071185</v>
       </c>
       <c r="J6" t="n">
-        <v>125084.8944600433</v>
+        <v>125165.7396296714</v>
       </c>
       <c r="K6" t="n">
-        <v>325922.3925320853</v>
+        <v>326003.237701714</v>
       </c>
       <c r="L6" t="n">
-        <v>274338.4118610898</v>
+        <v>274338.4118610897</v>
       </c>
       <c r="M6" t="n">
-        <v>286406.4023672267</v>
+        <v>286406.4023672265</v>
       </c>
       <c r="N6" t="n">
-        <v>332528.3236071185</v>
+        <v>332528.3236071183</v>
       </c>
       <c r="O6" t="n">
-        <v>297327.5160692909</v>
+        <v>300243.4587011426</v>
       </c>
       <c r="P6" t="n">
-        <v>329026.9737524518</v>
+        <v>327998.7555907342</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26710,7 +26710,7 @@
         <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="P2" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>512.2770670353256</v>
+        <v>493.2209407522327</v>
       </c>
       <c r="C4" t="n">
-        <v>512.2770670353256</v>
+        <v>493.2209407522327</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,16 +26805,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>855.6241555354138</v>
+        <v>874.6802818185066</v>
       </c>
       <c r="K4" t="n">
-        <v>855.6241555354137</v>
+        <v>874.6802818185066</v>
       </c>
       <c r="L4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126794</v>
+        <v>36.36869484126795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,19 +26932,19 @@
         <v>57.62257963304847</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>72.73738968253591</v>
+        <v>72.73738968253588</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.6243221039513</v>
+        <v>34.6941211119895</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>512.2770670353256</v>
+        <v>493.2209407522327</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>79.13505923396951</v>
+        <v>98.19118551706242</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692953</v>
+        <v>591.4121262692952</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126794</v>
+        <v>36.36869484126795</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>57.62257963304847</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>512.2770670353256</v>
+        <v>493.2209407522327</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>79.13505923396951</v>
+        <v>98.19118551706242</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,7 +27379,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>370.3124512958022</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -27388,13 +27388,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>119.7241191820662</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27473,10 +27473,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>81.63429352255457</v>
       </c>
       <c r="T3" t="n">
-        <v>13.54027119152943</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>81.52110699009295</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>227.129742976691</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>145.8156280511837</v>
       </c>
       <c r="D5" t="n">
-        <v>71.65215308926145</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -27673,16 +27673,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>149.8480948751419</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>160.7457511419712</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27777,25 +27777,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>70.52304655903781</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>193.6465134776317</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27853,13 +27853,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>248.0464527923776</v>
+        <v>229.465722175</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>149.2534355460791</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>68.35101272334074</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -28059,16 +28059,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
     </row>
     <row r="17">
@@ -28743,19 +28743,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668774</v>
+        <v>35.71049010668811</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28983,28 +28983,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>128.2979821082778</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>128.2979821082774</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>5.636002634528381</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29235,13 +29235,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29302,22 +29302,22 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>50.44530812136577</v>
       </c>
       <c r="N26" t="n">
         <v>93.99127447431644</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>68.9820219595976</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>93.99127447431644</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431641</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>68.98202195959755</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>50.44530812136566</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431749</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29928,13 +29928,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J34" t="n">
-        <v>35.71049010668825</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -29946,7 +29946,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>35.71049010668801</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -30177,19 +30177,19 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
+        <v>128.2979821082774</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5.636002634529063</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30271,7 +30271,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155848</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
         <v>130.3599693155844</v>
@@ -30405,7 +30405,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>5.636002634528452</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30417,16 +30417,16 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="C41" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="D41" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="E41" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="F41" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="G41" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="H41" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="I41" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="T41" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="U41" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="V41" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="W41" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="X41" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="Y41" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="C43" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="D43" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="E43" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="F43" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="G43" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="H43" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="I43" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="J43" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>112.3617117864872</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>2.58844303208258</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="O43" t="n">
-        <v>112.3617117864872</v>
+        <v>102.7941116784195</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="R43" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="S43" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="T43" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="U43" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="V43" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="W43" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="X43" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="Y43" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="C44" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="D44" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="E44" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="F44" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="G44" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="H44" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="I44" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="T44" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="U44" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="V44" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="W44" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="X44" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="Y44" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="C46" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="D46" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="E46" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="F46" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="G46" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="H46" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="I46" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="J46" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="K46" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="L46" t="n">
-        <v>2.58844303208258</v>
+        <v>102.7941116784202</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="Q46" t="n">
-        <v>112.3617117864872</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="S46" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="T46" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="U46" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="V46" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="W46" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="X46" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
       <c r="Y46" t="n">
-        <v>112.3617117864872</v>
+        <v>107.4315107945254</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>65.48809773676695</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>493.2209407522327</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>512.2770670353256</v>
+        <v>493.2209407522327</v>
       </c>
       <c r="O2" t="n">
-        <v>303.5168348848399</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>493.2209407522327</v>
       </c>
       <c r="N3" t="n">
-        <v>432.4557756164263</v>
+        <v>493.2209407522327</v>
       </c>
       <c r="O3" t="n">
-        <v>512.2770670353256</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>127.07319736</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>493.2209407522327</v>
       </c>
       <c r="M5" t="n">
-        <v>509.1104906653387</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>512.2770670353256</v>
+        <v>465.9291306498009</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,16 +35018,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>294.9951573096633</v>
+        <v>493.2209407522327</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>233.8263740209167</v>
       </c>
       <c r="O6" t="n">
-        <v>512.2770670353256</v>
+        <v>493.2209407522327</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>209.9577475604382</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>133.1362567285001</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>189.5090087160787</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>247.8874524576771</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35498,16 +35498,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O12" t="n">
-        <v>119.5613130890187</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215734</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446892</v>
+        <v>97.4480384844689</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,10 +35650,10 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N14" t="n">
         <v>533.1427107449111</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>216.4828246711707</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>145.1867114542002</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215736</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
@@ -35823,7 +35823,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446891</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,13 +35969,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N18" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634528664</v>
+        <v>5.636002634529037</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>137.7507871136803</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
         <v>236.7324157120106</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36291,7 +36291,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>292.6462316453567</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>5.636002634528635</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
@@ -36452,7 +36452,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>286.7682222146707</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
         <v>236.7324157120106</v>
@@ -36522,7 +36522,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>193.8093140873203</v>
+        <v>316.4712935610698</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36531,13 +36531,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36598,22 +36598,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>601.9613687724573</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>255.6947089706567</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
         <v>56.37828989698316</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>22.71185353989366</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>431.5904623913772</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>548.7486330895766</v>
       </c>
       <c r="M29" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809041</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698313</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36920,16 +36920,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>216.4828246711711</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>409.2430801289772</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215734</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963375</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.4480384844689</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>425.1941012797557</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>5.636002634529181</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
         <v>188.1733114527919</v>
@@ -37242,7 +37242,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>156.7975262446462</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>113.782083667694</v>
       </c>
       <c r="K36" t="n">
-        <v>35.0500461102036</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>634.1127774006881</v>
@@ -37400,7 +37400,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37473,19 +37473,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>315.4000036905431</v>
+        <v>313.3380164832362</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37628,10 +37628,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133843</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37713,16 +37713,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>312.5509084442139</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>82.28722431432814</v>
+        <v>77.35702332236636</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>278.1472066085072</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>190.7617544848745</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>297.401746161446</v>
+        <v>292.4715451694842</v>
       </c>
       <c r="O43" t="n">
-        <v>276.7099613235661</v>
+        <v>267.1423612154983</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379582</v>
+        <v>228.5185469324836</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>110.8882748046779</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O45" t="n">
-        <v>135.5123342397976</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>82.28722431432814</v>
+        <v>77.35702332236636</v>
       </c>
       <c r="K46" t="n">
-        <v>195.0233694732972</v>
+        <v>190.0931684813354</v>
       </c>
       <c r="L46" t="n">
-        <v>168.3739378541026</v>
+        <v>268.5796065004401</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>297.401746161446</v>
+        <v>292.4715451694842</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>228.5185469324836</v>
       </c>
       <c r="Q46" t="n">
-        <v>115.8184757966397</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
